--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-3714-top-by-best-speed.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-3714-top-by-best-speed.xlsx
@@ -59,7 +59,7 @@
     <t>ZILYA</t>
   </si>
   <si>
-    <t>11 ч. 3 мин. 26 сек.</t>
+    <t>11 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>3</t>
@@ -86,7 +86,7 @@
     <t>HRUST</t>
   </si>
   <si>
-    <t>10 ч. 45 мин. 8 сек.</t>
+    <t>10 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>6</t>
@@ -122,7 +122,7 @@
     <t>EVERGLOW</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 55 сек.</t>
+    <t>1 ч. 03 мин. 55 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -149,7 +149,7 @@
     <t>serg_omen</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 16 сек.</t>
+    <t>12 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>13</t>
@@ -158,7 +158,7 @@
     <t>Алина_</t>
   </si>
   <si>
-    <t>11 ч. 20 мин. 2 сек.</t>
+    <t>11 ч. 20 мин. 02 сек.</t>
   </si>
   <si>
     <t>14</t>
@@ -167,7 +167,7 @@
     <t>ReadySteadyGo_</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 59 сек.</t>
+    <t>4 ч. 01 мин. 59 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -176,7 +176,7 @@
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 35 сек.</t>
+    <t>7 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>16</t>
@@ -194,7 +194,7 @@
     <t>Юрикор_Мишка</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 8 сек.</t>
+    <t>2 ч. 02 мин. 08 сек.</t>
   </si>
   <si>
     <t>18–19</t>
@@ -203,7 +203,7 @@
     <t>trhlAHAHsfjJ</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 3 сек.</t>
+    <t>3 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>Андруша</t>
@@ -227,7 +227,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>7 ч. 15 мин. 7 сек.</t>
+    <t>7 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>22</t>
@@ -236,7 +236,7 @@
     <t>Uncle_Sam</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 3 сек.</t>
+    <t>1 ч. 22 мин. 03 сек.</t>
   </si>
   <si>
     <t>23</t>
@@ -254,7 +254,7 @@
     <t>ToNick</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 50 сек.</t>
+    <t>3 ч. 07 мин. 50 сек.</t>
   </si>
   <si>
     <t>25</t>
@@ -281,7 +281,7 @@
     <t>QuetzalcoatI</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 43 сек.</t>
+    <t>5 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>28</t>
@@ -317,7 +317,7 @@
     <t>ddenis</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 30 сек.</t>
+    <t>3 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>32</t>
@@ -326,7 +326,7 @@
     <t>foggystyle</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 38 сек.</t>
+    <t>8 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>33</t>
@@ -371,7 +371,7 @@
     <t>Disobey</t>
   </si>
   <si>
-    <t>7 ч. 21 мин. 1 сек.</t>
+    <t>7 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -434,7 +434,7 @@
     <t>buzzy</t>
   </si>
   <si>
-    <t>3 ч. 59 мин. 5 сек.</t>
+    <t>3 ч. 59 мин. 05 сек.</t>
   </si>
   <si>
     <t>ТрупОдиночка</t>
@@ -476,7 +476,7 @@
     <t>Alex123451</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 17 сек.</t>
+    <t>7 ч. 09 мин. 17 сек.</t>
   </si>
   <si>
     <t>50</t>
@@ -503,7 +503,7 @@
     <t>1hatedfate</t>
   </si>
   <si>
-    <t>10 ч. 6 мин. 13 сек.</t>
+    <t>10 ч. 06 мин. 13 сек.</t>
   </si>
   <si>
     <t>53–54</t>
@@ -587,7 +587,7 @@
     <t>Квак</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 45 сек.</t>
+    <t>2 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>ИльдарВолжский</t>
@@ -656,13 +656,13 @@
     <t>Eremite</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 22 сек.</t>
+    <t>2 ч. 00 мин. 22 сек.</t>
   </si>
   <si>
     <t>h2-positiv</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 21 сек.</t>
+    <t>13 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>73</t>
@@ -680,7 +680,7 @@
     <t>VisaryMaster</t>
   </si>
   <si>
-    <t>30 ч. 7 мин. 1 сек.</t>
+    <t>30 ч. 07 мин. 01 сек.</t>
   </si>
   <si>
     <t>75–76</t>
@@ -689,7 +689,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 14 сек.</t>
+    <t>4 ч. 07 мин. 14 сек.</t>
   </si>
   <si>
     <t>Versus3d</t>
@@ -743,7 +743,7 @@
     <t>Уклюжий</t>
   </si>
   <si>
-    <t>26 ч. 36 мин. 0 сек.</t>
+    <t>26 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>83–84</t>
@@ -758,7 +758,7 @@
     <t>-Wanted-</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 5 сек.</t>
+    <t>5 ч. 08 мин. 05 сек.</t>
   </si>
   <si>
     <t>85</t>
@@ -806,7 +806,7 @@
     <t>sashavirtual</t>
   </si>
   <si>
-    <t>5 ч. 29 мин. 2 сек.</t>
+    <t>5 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>marinka19</t>
@@ -821,7 +821,7 @@
     <t>DeniV</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 2 сек.</t>
+    <t>1 ч. 25 мин. 02 сек.</t>
   </si>
   <si>
     <t>kakvaska</t>
@@ -848,7 +848,7 @@
     <t>RusVodka777</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 11 сек.</t>
+    <t>5 ч. 04 мин. 11 сек.</t>
   </si>
   <si>
     <t>97–98</t>
@@ -863,7 +863,7 @@
     <t>Uraniadz</t>
   </si>
   <si>
-    <t>15 ч. 37 мин. 3 сек.</t>
+    <t>15 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>99–101</t>
@@ -872,13 +872,13 @@
     <t>TypeError</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 39 сек.</t>
+    <t>5 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>Leu</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 14 сек.</t>
+    <t>10 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>-Advanced-</t>
@@ -893,7 +893,7 @@
     <t>Dj_Hard</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 44 сек.</t>
+    <t>3 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>103–105</t>
@@ -923,7 +923,7 @@
     <t>Just</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 5 сек.</t>
+    <t>2 ч. 01 мин. 05 сек.</t>
   </si>
   <si>
     <t>107</t>
@@ -932,7 +932,7 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 22 сек.</t>
+    <t>4 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>108–110</t>
@@ -962,7 +962,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>14 ч. 29 мин. 9 сек.</t>
+    <t>14 ч. 29 мин. 09 сек.</t>
   </si>
   <si>
     <t>112</t>
@@ -971,7 +971,7 @@
     <t>Grinn</t>
   </si>
   <si>
-    <t>3 ч. 55 мин. 5 сек.</t>
+    <t>3 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>113–114</t>
@@ -980,7 +980,7 @@
     <t>ChisloPi</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 53 сек.</t>
+    <t>4 ч. 00 мин. 53 сек.</t>
   </si>
   <si>
     <t>X_Shot</t>
@@ -995,7 +995,7 @@
     <t>Flinty518</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 26 сек.</t>
+    <t>7 ч. 08 мин. 26 сек.</t>
   </si>
   <si>
     <t>116</t>
@@ -1019,7 +1019,7 @@
     <t>Numb_kz</t>
   </si>
   <si>
-    <t>14 ч. 0 мин. 38 сек.</t>
+    <t>14 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>119–123</t>
@@ -1061,7 +1061,7 @@
     <t>Lelick</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 52 сек.</t>
+    <t>8 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>125–126</t>
@@ -1070,7 +1070,7 @@
     <t>pijamka</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 49 сек.</t>
+    <t>4 ч. 03 мин. 49 сек.</t>
   </si>
   <si>
     <t>sav1</t>
@@ -1148,7 +1148,7 @@
     <t>Ямастер</t>
   </si>
   <si>
-    <t>39 ч. 8 мин. 56 сек.</t>
+    <t>39 ч. 08 мин. 56 сек.</t>
   </si>
   <si>
     <t>136–137</t>
@@ -1181,7 +1181,7 @@
     <t>4iterok007</t>
   </si>
   <si>
-    <t>4 ч. 20 мин. 3 сек.</t>
+    <t>4 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>140–142</t>
@@ -1190,7 +1190,7 @@
     <t>Hold_Tight</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 9 сек.</t>
+    <t>2 ч. 46 мин. 09 сек.</t>
   </si>
   <si>
     <t>Thtas</t>
@@ -1211,7 +1211,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 48 сек.</t>
+    <t>3 ч. 04 мин. 48 сек.</t>
   </si>
   <si>
     <t>_nikki_</t>
@@ -1277,7 +1277,7 @@
     <t>Deni4</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 36 сек.</t>
+    <t>3 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>Кот_Черныш</t>
@@ -1340,7 +1340,7 @@
     <t>merely</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 11 сек.</t>
+    <t>7 ч. 05 мин. 11 сек.</t>
   </si>
   <si>
     <t>162</t>
@@ -1397,13 +1397,13 @@
     <t>ТОМА-АТОМНАЯ</t>
   </si>
   <si>
-    <t>3 ч. 36 мин. 6 сек.</t>
+    <t>3 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>Ильк</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 31 сек.</t>
+    <t>22 ч. 08 мин. 31 сек.</t>
   </si>
   <si>
     <t>fishca</t>
@@ -1418,7 +1418,7 @@
     <t>Falster</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 4 сек.</t>
+    <t>2 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>Ethicon</t>
@@ -1454,7 +1454,7 @@
     <t>Kenichi</t>
   </si>
   <si>
-    <t>14 ч. 7 мин. 12 сек.</t>
+    <t>14 ч. 07 мин. 12 сек.</t>
   </si>
   <si>
     <t>177–180</t>
@@ -1481,7 +1481,7 @@
     <t>Genek</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 50 сек.</t>
+    <t>8 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>181</t>
@@ -1499,7 +1499,7 @@
     <t>BlaZe_RoX</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 47 сек.</t>
+    <t>2 ч. 02 мин. 47 сек.</t>
   </si>
   <si>
     <t>Крестоносец</t>
@@ -1529,7 +1529,7 @@
     <t>fingeroo</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 8 сек.</t>
+    <t>3 ч. 33 мин. 08 сек.</t>
   </si>
   <si>
     <t>187–189</t>
@@ -1577,7 +1577,7 @@
     <t>БоряБ</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 37 сек.</t>
+    <t>5 ч. 00 мин. 37 сек.</t>
   </si>
   <si>
     <t>korzhik-by</t>
@@ -1631,7 +1631,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>22 ч. 18 мин. 3 сек.</t>
+    <t>22 ч. 18 мин. 03 сек.</t>
   </si>
   <si>
     <t>shamer</t>
@@ -1646,7 +1646,7 @@
     <t>Leha-88-88</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 1 сек.</t>
+    <t>3 ч. 15 мин. 01 сек.</t>
   </si>
   <si>
     <t>1bars1</t>
@@ -1661,7 +1661,7 @@
     <t>Infinit</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 9 сек.</t>
+    <t>1 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>Melior</t>
@@ -1676,7 +1676,7 @@
     <t>anahata</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 8 сек.</t>
+    <t>3 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>207</t>
@@ -1694,7 +1694,7 @@
     <t>ГДВ</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 13 сек.</t>
+    <t>2 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>HollowDante</t>
@@ -1712,7 +1712,7 @@
     <t>zpslon</t>
   </si>
   <si>
-    <t>37 ч. 53 мин. 4 сек.</t>
+    <t>37 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>saulidis</t>
@@ -1733,7 +1733,7 @@
     <t>vcvlsdfkv</t>
   </si>
   <si>
-    <t>4 ч. 24 мин. 9 сек.</t>
+    <t>4 ч. 24 мин. 09 сек.</t>
   </si>
   <si>
     <t>215–216</t>
@@ -1781,7 +1781,7 @@
     <t>sorax</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 9 сек.</t>
+    <t>2 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>kameheb</t>
@@ -1799,7 +1799,7 @@
     <t>R_E_S_E_T</t>
   </si>
   <si>
-    <t>14 ч. 37 мин. 4 сек.</t>
+    <t>14 ч. 37 мин. 04 сек.</t>
   </si>
   <si>
     <t>224–226</t>
@@ -1835,7 +1835,7 @@
     <t>Только_Киев</t>
   </si>
   <si>
-    <t>3 ч. 27 мин. 5 сек.</t>
+    <t>3 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>229–233</t>
@@ -1889,7 +1889,7 @@
     <t>задумчивый</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 52 сек.</t>
+    <t>7 ч. 03 мин. 52 сек.</t>
   </si>
   <si>
     <t>237</t>
@@ -1913,13 +1913,13 @@
     <t>winix</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 31 сек.</t>
+    <t>5 ч. 01 мин. 31 сек.</t>
   </si>
   <si>
     <t>Rightwheel</t>
   </si>
   <si>
-    <t>37 ч. 1 мин. 46 сек.</t>
+    <t>37 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>241</t>
@@ -1964,7 +1964,7 @@
     <t>ЦАРЬ</t>
   </si>
   <si>
-    <t>3 ч. 22 мин. 3 сек.</t>
+    <t>3 ч. 22 мин. 03 сек.</t>
   </si>
   <si>
     <t>doklls</t>
@@ -2030,25 +2030,25 @@
     <t>pa4loed</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 29 сек.</t>
+    <t>2 ч. 09 мин. 29 сек.</t>
   </si>
   <si>
     <t>Locust</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 2 сек.</t>
+    <t>2 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>__Anastasia__</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 8 сек.</t>
+    <t>6 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>Jon31</t>
   </si>
   <si>
-    <t>14 ч. 46 мин. 7 сек.</t>
+    <t>14 ч. 46 мин. 07 сек.</t>
   </si>
   <si>
     <t>259–263</t>
@@ -2099,7 +2099,7 @@
     <t>p-kuznetsov</t>
   </si>
   <si>
-    <t>13 ч. 11 мин. 1 сек.</t>
+    <t>13 ч. 11 мин. 01 сек.</t>
   </si>
   <si>
     <t>266</t>
@@ -2108,7 +2108,7 @@
     <t>tfn3k</t>
   </si>
   <si>
-    <t>5 ч. 20 мин. 9 сек.</t>
+    <t>5 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>267–270</t>
@@ -2117,7 +2117,7 @@
     <t>Днище_грЕбаное</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 28 сек.</t>
+    <t>4 ч. 09 мин. 28 сек.</t>
   </si>
   <si>
     <t>wanton</t>
@@ -2129,13 +2129,13 @@
     <t>tarak</t>
   </si>
   <si>
-    <t>10 ч. 45 мин. 1 сек.</t>
+    <t>10 ч. 45 мин. 01 сек.</t>
   </si>
   <si>
     <t>Oble</t>
   </si>
   <si>
-    <t>17 ч. 30 мин. 3 сек.</t>
+    <t>17 ч. 30 мин. 03 сек.</t>
   </si>
   <si>
     <t>271–274</t>
@@ -2150,7 +2150,7 @@
     <t>pairbit</t>
   </si>
   <si>
-    <t>4 ч. 22 мин. 2 сек.</t>
+    <t>4 ч. 22 мин. 02 сек.</t>
   </si>
   <si>
     <t>JluCa</t>
@@ -2177,13 +2177,13 @@
     <t>Ciaconne</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 10 сек.</t>
+    <t>4 ч. 00 мин. 10 сек.</t>
   </si>
   <si>
     <t>belkaoboroten</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 16 сек.</t>
+    <t>4 ч. 01 мин. 16 сек.</t>
   </si>
   <si>
     <t>Dobby_</t>
@@ -2201,13 +2201,13 @@
     <t>ogogo</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 51 сек.</t>
+    <t>13 ч. 02 мин. 51 сек.</t>
   </si>
   <si>
     <t>valula</t>
   </si>
   <si>
-    <t>27 ч. 51 мин. 0 сек.</t>
+    <t>27 ч. 51 мин. 00 сек.</t>
   </si>
   <si>
     <t>282–283</t>
@@ -2231,7 +2231,7 @@
     <t>Batbara</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 53 сек.</t>
+    <t>6 ч. 09 мин. 53 сек.</t>
   </si>
   <si>
     <t>Gal04ka</t>
@@ -2246,7 +2246,7 @@
     <t>Trantar</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 2 сек.</t>
+    <t>2 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>Elizar</t>
@@ -2258,7 +2258,7 @@
     <t>rafaelll</t>
   </si>
   <si>
-    <t>3 ч. 40 мин. 5 сек.</t>
+    <t>3 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>289–290</t>
@@ -2267,7 +2267,7 @@
     <t>Vovaldo</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 28 сек.</t>
+    <t>5 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>Grevozin</t>
@@ -2288,7 +2288,7 @@
     <t>Arishkou</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>Дибров</t>
@@ -2315,7 +2315,7 @@
     <t>_ulanochka</t>
   </si>
   <si>
-    <t>3 ч. 32 мин. 8 сек.</t>
+    <t>3 ч. 32 мин. 08 сек.</t>
   </si>
   <si>
     <t>297–301</t>
@@ -2324,13 +2324,13 @@
     <t>iOlga</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 43 сек.</t>
+    <t>2 ч. 00 мин. 43 сек.</t>
   </si>
   <si>
     <t>neus</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 50 сек.</t>
+    <t>2 ч. 07 мин. 50 сек.</t>
   </si>
   <si>
     <t>chat</t>
@@ -2348,7 +2348,7 @@
     <t>Reset82</t>
   </si>
   <si>
-    <t>10 ч. 40 мин. 6 сек.</t>
+    <t>10 ч. 40 мин. 06 сек.</t>
   </si>
   <si>
     <t>302–304</t>
@@ -2378,7 +2378,7 @@
     <t>breaks</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 53 сек.</t>
+    <t>2 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>NinaVladi</t>
@@ -2402,7 +2402,7 @@
     <t>Salamandra555</t>
   </si>
   <si>
-    <t>7 ч. 51 мин. 4 сек.</t>
+    <t>7 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>310–312</t>
@@ -2417,7 +2417,7 @@
     <t>Гравий</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 50 сек.</t>
+    <t>4 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>Tedman</t>
@@ -2444,13 +2444,13 @@
     <t>Unwear</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 37 сек.</t>
+    <t>3 ч. 09 мин. 37 сек.</t>
   </si>
   <si>
     <t>Easy88</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 30 сек.</t>
+    <t>5 ч. 01 мин. 30 сек.</t>
   </si>
   <si>
     <t>317</t>
@@ -2468,7 +2468,7 @@
     <t>ПИТ</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 0 сек.</t>
+    <t>2 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>aShark</t>
@@ -2543,7 +2543,7 @@
     <t>a_shir</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 33 сек.</t>
+    <t>2 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>MAXIMUSX</t>
@@ -2555,7 +2555,7 @@
     <t>classifiedman</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 23 сек.</t>
+    <t>4 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>Sonick071</t>
@@ -2576,7 +2576,7 @@
     <t>andrew-fam</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 4 сек.</t>
+    <t>13 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>335–336</t>
@@ -2600,7 +2600,7 @@
     <t>Squirr</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 1 сек.</t>
+    <t>4 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>Mirtum</t>
@@ -2612,7 +2612,7 @@
     <t>SlavaSlava</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 4 сек.</t>
+    <t>11 ч. 06 мин. 04 сек.</t>
   </si>
   <si>
     <t>Lyoks</t>
@@ -2654,7 +2654,7 @@
     <t>Slavik89</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 39 сек.</t>
+    <t>7 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>346–348</t>
@@ -2675,7 +2675,7 @@
     <t>Сима44</t>
   </si>
   <si>
-    <t>16 ч. 5 мин. 14 сек.</t>
+    <t>16 ч. 05 мин. 14 сек.</t>
   </si>
   <si>
     <t>349</t>
@@ -2693,7 +2693,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 0 сек.</t>
+    <t>2 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>351–354</t>
@@ -2714,7 +2714,7 @@
     <t>grevgen</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 53 сек.</t>
+    <t>3 ч. 06 мин. 53 сек.</t>
   </si>
   <si>
     <t>YellowOrWhite</t>
@@ -2729,13 +2729,13 @@
     <t>Берегиня</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 7 сек.</t>
+    <t>4 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>Lexanni</t>
   </si>
   <si>
-    <t>8 ч. 58 мин. 4 сек.</t>
+    <t>8 ч. 58 мин. 04 сек.</t>
   </si>
   <si>
     <t>357–359</t>
@@ -2750,7 +2750,7 @@
     <t>8ele8</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 5 сек.</t>
+    <t>8 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>NineFingers</t>
@@ -2765,13 +2765,13 @@
     <t>Geistero</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 29 сек.</t>
+    <t>2 ч. 01 мин. 29 сек.</t>
   </si>
   <si>
     <t>Impressive92</t>
   </si>
   <si>
-    <t>5 ч. 41 мин. 4 сек.</t>
+    <t>5 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>362–364</t>
@@ -2780,7 +2780,7 @@
     <t>Marrog</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 19 сек.</t>
+    <t>4 ч. 01 мин. 19 сек.</t>
   </si>
   <si>
     <t>paintedhat</t>
@@ -2816,7 +2816,7 @@
     <t>Верховцев</t>
   </si>
   <si>
-    <t>5 ч. 12 мин. 9 сек.</t>
+    <t>5 ч. 12 мин. 09 сек.</t>
   </si>
   <si>
     <t>368</t>
@@ -2840,7 +2840,7 @@
     <t>schamuil</t>
   </si>
   <si>
-    <t>9 ч. 38 мин. 4 сек.</t>
+    <t>9 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>371–372</t>
@@ -2879,7 +2879,7 @@
     <t>ofirinka</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 44 сек.</t>
+    <t>14 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>376–378</t>
@@ -2888,13 +2888,13 @@
     <t>segalize</t>
   </si>
   <si>
-    <t>4 ч. 11 мин. 3 сек.</t>
+    <t>4 ч. 11 мин. 03 сек.</t>
   </si>
   <si>
     <t>sad_robot</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 43 сек.</t>
+    <t>8 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>Аурика</t>
@@ -2909,19 +2909,19 @@
     <t>-Vovik-</t>
   </si>
   <si>
-    <t>2 ч. 48 мин. 8 сек.</t>
+    <t>2 ч. 48 мин. 08 сек.</t>
   </si>
   <si>
     <t>турандот</t>
   </si>
   <si>
-    <t>3 ч. 28 мин. 2 сек.</t>
+    <t>3 ч. 28 мин. 02 сек.</t>
   </si>
   <si>
     <t>Лапаягуара</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 53 сек.</t>
+    <t>9 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>dim07</t>
@@ -2960,13 +2960,13 @@
     <t>IntusNox</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 41 сек.</t>
+    <t>2 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>мимими</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 3 сек.</t>
+    <t>2 ч. 33 мин. 03 сек.</t>
   </si>
   <si>
     <t>Aswxxx</t>
@@ -2990,7 +2990,7 @@
     <t>anrn</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 24 сек.</t>
+    <t>11 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>mastodont</t>
@@ -3005,7 +3005,7 @@
     <t>Annabeth</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 1 сек.</t>
+    <t>2 ч. 10 мин. 01 сек.</t>
   </si>
   <si>
     <t>aimpu</t>
@@ -3017,13 +3017,13 @@
     <t>reemaind</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 43 сек.</t>
+    <t>4 ч. 05 мин. 43 сек.</t>
   </si>
   <si>
     <t>Амирыч</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 26 сек.</t>
+    <t>8 ч. 09 мин. 26 сек.</t>
   </si>
   <si>
     <t>397–403</t>
@@ -3038,7 +3038,7 @@
     <t>Serhio97</t>
   </si>
   <si>
-    <t>2 ч. 55 мин. 6 сек.</t>
+    <t>2 ч. 55 мин. 06 сек.</t>
   </si>
   <si>
     <t>19rus</t>
@@ -3050,7 +3050,7 @@
     <t>vic0nt</t>
   </si>
   <si>
-    <t>3 ч. 30 мин. 6 сек.</t>
+    <t>3 ч. 30 мин. 06 сек.</t>
   </si>
   <si>
     <t>Formatik</t>
@@ -3062,7 +3062,7 @@
     <t>denver14</t>
   </si>
   <si>
-    <t>7 ч. 35 мин. 8 сек.</t>
+    <t>7 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>Auril</t>
@@ -3083,7 +3083,7 @@
     <t>AlexFer</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 2 сек.</t>
+    <t>4 ч. 17 мин. 02 сек.</t>
   </si>
   <si>
     <t>406–411</t>
@@ -3092,7 +3092,7 @@
     <t>НЮШКА-ХРЮШКА</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 58 сек.</t>
+    <t>2 ч. 09 мин. 58 сек.</t>
   </si>
   <si>
     <t>eviece_108</t>
@@ -3107,13 +3107,13 @@
     <t>Opiyai</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 3 сек.</t>
+    <t>3 ч. 34 мин. 03 сек.</t>
   </si>
   <si>
     <t>Tenguy</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 23 сек.</t>
+    <t>4 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>UnoMaster</t>
@@ -3134,7 +3134,7 @@
     <t>sergeyburda</t>
   </si>
   <si>
-    <t>5 ч. 42 мин. 7 сек.</t>
+    <t>5 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>Клавоген</t>
@@ -3176,7 +3176,7 @@
     <t>лаоцзы</t>
   </si>
   <si>
-    <t>3 ч. 28 мин. 9 сек.</t>
+    <t>3 ч. 28 мин. 09 сек.</t>
   </si>
   <si>
     <t>vulpinex</t>
@@ -3224,13 +3224,13 @@
     <t>gornostay</t>
   </si>
   <si>
-    <t>2 ч. 45 мин. 6 сек.</t>
+    <t>2 ч. 45 мин. 06 сек.</t>
   </si>
   <si>
     <t>karalina</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 45 сек.</t>
+    <t>9 ч. 03 мин. 45 сек.</t>
   </si>
   <si>
     <t>428–429</t>
@@ -3278,13 +3278,13 @@
     <t>FarWin</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 59 сек.</t>
+    <t>6 ч. 09 мин. 59 сек.</t>
   </si>
   <si>
     <t>Abbill</t>
   </si>
   <si>
-    <t>14 ч. 18 мин. 5 сек.</t>
+    <t>14 ч. 18 мин. 05 сек.</t>
   </si>
   <si>
     <t>436</t>
@@ -3293,7 +3293,7 @@
     <t>dertru</t>
   </si>
   <si>
-    <t>15 ч. 8 мин. 35 сек.</t>
+    <t>15 ч. 08 мин. 35 сек.</t>
   </si>
   <si>
     <t>437–439</t>
@@ -3323,7 +3323,7 @@
     <t>Chuchpek</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 21 сек.</t>
+    <t>2 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>441</t>
@@ -3356,7 +3356,7 @@
     <t>uniko</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 7 сек.</t>
+    <t>2 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>shvalegor</t>
@@ -3368,7 +3368,7 @@
     <t>Just_so_Lex</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 9 сек.</t>
+    <t>3 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>Lexin13</t>
@@ -3404,7 +3404,7 @@
     <t>Rain</t>
   </si>
   <si>
-    <t>3 ч. 46 мин. 2 сек.</t>
+    <t>3 ч. 46 мин. 02 сек.</t>
   </si>
   <si>
     <t>Breakdown</t>
@@ -3428,7 +3428,7 @@
     <t>_Влада_</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 9 сек.</t>
+    <t>8 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>456</t>
@@ -3467,13 +3467,13 @@
     <t>agor</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 0 сек.</t>
+    <t>2 ч. 58 мин. 00 сек.</t>
   </si>
   <si>
     <t>Серж_Благ</t>
   </si>
   <si>
-    <t>33 ч. 27 мин. 6 сек.</t>
+    <t>33 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>462–466</t>
@@ -3494,7 +3494,7 @@
     <t>beniscook</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 42 сек.</t>
+    <t>3 ч. 00 мин. 42 сек.</t>
   </si>
   <si>
     <t>nagibat0r</t>
@@ -3530,13 +3530,13 @@
     <t>flake77</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 4 сек.</t>
+    <t>2 ч. 23 мин. 04 сек.</t>
   </si>
   <si>
     <t>Zheka169</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 3 сек.</t>
+    <t>3 ч. 33 мин. 03 сек.</t>
   </si>
   <si>
     <t>Kazuma</t>
@@ -3581,13 +3581,13 @@
     <t>Gosick</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 0 сек.</t>
+    <t>3 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>mmc</t>
   </si>
   <si>
-    <t>7 ч. 48 мин. 9 сек.</t>
+    <t>7 ч. 48 мин. 09 сек.</t>
   </si>
   <si>
     <t>478–479</t>
@@ -3623,7 +3623,7 @@
     <t>jodic2001</t>
   </si>
   <si>
-    <t>8 ч. 32 мин. 1 сек.</t>
+    <t>8 ч. 32 мин. 01 сек.</t>
   </si>
   <si>
     <t>filial-foton</t>
@@ -3656,7 +3656,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 10 сек.</t>
+    <t>10 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>488</t>
@@ -3665,7 +3665,7 @@
     <t>vvoland</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 1 сек.</t>
+    <t>7 ч. 04 мин. 01 сек.</t>
   </si>
   <si>
     <t>489–493</t>
@@ -3686,7 +3686,7 @@
     <t>fdsken</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 57 сек.</t>
+    <t>3 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>Клевая_черепаха</t>
@@ -3698,7 +3698,7 @@
     <t>косогор_</t>
   </si>
   <si>
-    <t>8 ч. 7 мин. 14 сек.</t>
+    <t>8 ч. 07 мин. 14 сек.</t>
   </si>
   <si>
     <t>494–497</t>
@@ -3725,7 +3725,7 @@
     <t>Paulzh</t>
   </si>
   <si>
-    <t>7 ч. 57 мин. 6 сек.</t>
+    <t>7 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>498</t>
@@ -3839,7 +3839,7 @@
     <t>Akmat</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 49 сек.</t>
+    <t>3 ч. 08 мин. 49 сек.</t>
   </si>
   <si>
     <t>vl7</t>
@@ -3854,7 +3854,7 @@
     <t>Книголюб</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 25 сек.</t>
+    <t>4 ч. 09 мин. 25 сек.</t>
   </si>
   <si>
     <t>харцызяка</t>
@@ -3884,7 +3884,7 @@
     <t>monetka</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 16 сек.</t>
+    <t>6 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>519–522</t>
@@ -3905,13 +3905,13 @@
     <t>lokidos</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 9 сек.</t>
+    <t>4 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>patas_arriba</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 40 сек.</t>
+    <t>4 ч. 00 мин. 40 сек.</t>
   </si>
   <si>
     <t>523–525</t>
@@ -3956,13 +3956,13 @@
     <t>akuna1</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 25 сек.</t>
+    <t>3 ч. 00 мин. 25 сек.</t>
   </si>
   <si>
     <t>EthelHallow</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 16 сек.</t>
+    <t>5 ч. 04 мин. 16 сек.</t>
   </si>
   <si>
     <t>530</t>
@@ -3992,13 +3992,13 @@
     <t>младенец</t>
   </si>
   <si>
-    <t>7 ч. 54 мин. 1 сек.</t>
+    <t>7 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>xdg-</t>
   </si>
   <si>
-    <t>16 ч. 52 мин. 3 сек.</t>
+    <t>16 ч. 52 мин. 03 сек.</t>
   </si>
   <si>
     <t>535–538</t>
@@ -4013,19 +4013,19 @@
     <t>Snash</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 27 сек.</t>
+    <t>9 ч. 04 мин. 27 сек.</t>
   </si>
   <si>
     <t>lehf</t>
   </si>
   <si>
-    <t>11 ч. 8 мин. 46 сек.</t>
+    <t>11 ч. 08 мин. 46 сек.</t>
   </si>
   <si>
     <t>aralov</t>
   </si>
   <si>
-    <t>15 ч. 4 мин. 50 сек.</t>
+    <t>15 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>539–540</t>
@@ -4100,7 +4100,7 @@
     <t>E_l_e_n_a</t>
   </si>
   <si>
-    <t>5 ч. 46 мин. 4 сек.</t>
+    <t>5 ч. 46 мин. 04 сек.</t>
   </si>
   <si>
     <t>Shturmovik</t>
@@ -4121,7 +4121,7 @@
     <t>serg3295</t>
   </si>
   <si>
-    <t>15 ч. 2 мин. 43 сек.</t>
+    <t>15 ч. 02 мин. 43 сек.</t>
   </si>
   <si>
     <t>551</t>
@@ -4169,7 +4169,7 @@
     <t>anuni</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 3 сек.</t>
+    <t>2 ч. 29 мин. 03 сек.</t>
   </si>
   <si>
     <t>Radchin</t>
@@ -4190,7 +4190,7 @@
     <t>Интересующийся</t>
   </si>
   <si>
-    <t>6 ч. 29 мин. 8 сек.</t>
+    <t>6 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>560–561</t>
@@ -4211,13 +4211,13 @@
     <t>antoshagagarin1</t>
   </si>
   <si>
-    <t>3 ч. 46 мин. 3 сек.</t>
+    <t>3 ч. 46 мин. 03 сек.</t>
   </si>
   <si>
     <t>borzonhiggs</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 3 сек.</t>
+    <t>4 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>igorboroda</t>
@@ -4322,7 +4322,7 @@
     <t>_amateur</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 8 сек.</t>
+    <t>3 ч. 03 мин. 08 сек.</t>
   </si>
   <si>
     <t>Grizzly284</t>
@@ -4355,7 +4355,7 @@
     <t>Хольман</t>
   </si>
   <si>
-    <t>6 ч. 52 мин. 3 сек.</t>
+    <t>6 ч. 52 мин. 03 сек.</t>
   </si>
   <si>
     <t>582–583</t>
@@ -4418,7 +4418,7 @@
     <t>TypePracticeRu1</t>
   </si>
   <si>
-    <t>6 ч. 49 мин. 2 сек.</t>
+    <t>6 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>591–594</t>
@@ -4427,7 +4427,7 @@
     <t>Borkli</t>
   </si>
   <si>
-    <t>3 ч. 41 мин. 2 сек.</t>
+    <t>3 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>Castolo</t>
@@ -4445,7 +4445,7 @@
     <t>Бауыржан80</t>
   </si>
   <si>
-    <t>94 ч. 2 мин. 47 сек.</t>
+    <t>94 ч. 02 мин. 47 сек.</t>
   </si>
   <si>
     <t>595–596</t>
@@ -4469,7 +4469,7 @@
     <t>shishini38</t>
   </si>
   <si>
-    <t>4 ч. 45 мин. 9 сек.</t>
+    <t>4 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>598–599</t>
@@ -4478,7 +4478,7 @@
     <t>Ivanov13</t>
   </si>
   <si>
-    <t>8 ч. 15 мин. 0 сек.</t>
+    <t>8 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>nikolay51</t>
@@ -4508,7 +4508,7 @@
     <t>Спелый</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 22 сек.</t>
+    <t>5 ч. 06 мин. 22 сек.</t>
   </si>
   <si>
     <t>603</t>
@@ -4532,7 +4532,7 @@
     <t>SlooN777</t>
   </si>
   <si>
-    <t>9 ч. 6 мин. 58 сек.</t>
+    <t>9 ч. 06 мин. 58 сек.</t>
   </si>
   <si>
     <t>606</t>
@@ -4556,7 +4556,7 @@
     <t>AlViNic</t>
   </si>
   <si>
-    <t>5 ч. 22 мин. 2 сек.</t>
+    <t>5 ч. 22 мин. 02 сек.</t>
   </si>
   <si>
     <t>Rad1</t>
@@ -4568,7 +4568,7 @@
     <t>valerii12345</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 43 сек.</t>
+    <t>8 ч. 00 мин. 43 сек.</t>
   </si>
   <si>
     <t>611</t>
@@ -4577,7 +4577,7 @@
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 34 сек.</t>
+    <t>9 ч. 03 мин. 34 сек.</t>
   </si>
   <si>
     <t>612</t>
@@ -4619,7 +4619,7 @@
     <t>vlad200</t>
   </si>
   <si>
-    <t>31 ч. 8 мин. 44 сек.</t>
+    <t>31 ч. 08 мин. 44 сек.</t>
   </si>
   <si>
     <t>617–618</t>
@@ -4652,7 +4652,7 @@
     <t>natalishka</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 21 сек.</t>
+    <t>5 ч. 06 мин. 21 сек.</t>
   </si>
   <si>
     <t>621–622</t>
@@ -4709,7 +4709,7 @@
     <t>gor2810</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 4 сек.</t>
+    <t>4 ч. 10 мин. 04 сек.</t>
   </si>
   <si>
     <t>628</t>
@@ -4718,7 +4718,7 @@
     <t>Alex1980</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 42 сек.</t>
+    <t>4 ч. 09 мин. 42 сек.</t>
   </si>
   <si>
     <t>629</t>
@@ -4736,7 +4736,7 @@
     <t>sega1975</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 47 сек.</t>
+    <t>4 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>631</t>
@@ -4778,7 +4778,7 @@
     <t>1977</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 57 сек.</t>
+    <t>4 ч. 02 мин. 57 сек.</t>
   </si>
   <si>
     <t>636</t>
@@ -4805,7 +4805,7 @@
     <t>никнэйм</t>
   </si>
   <si>
-    <t>5 ч. 32 мин. 7 сек.</t>
+    <t>5 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>639–640</t>
@@ -4829,7 +4829,7 @@
     <t>bolt25</t>
   </si>
   <si>
-    <t>19 ч. 0 мин. 44 сек.</t>
+    <t>19 ч. 00 мин. 44 сек.</t>
   </si>
   <si>
     <t>642</t>
@@ -4847,7 +4847,7 @@
     <t>maestro2809</t>
   </si>
   <si>
-    <t>5 ч. 49 мин. 2 сек.</t>
+    <t>5 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>644</t>
@@ -4856,7 +4856,7 @@
     <t>vova555</t>
   </si>
   <si>
-    <t>30 ч. 50 мин. 1 сек.</t>
+    <t>30 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>645</t>
